--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayanpussurmanov/Finance/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D72C82C-78B5-814A-8C9A-1ACF04C289F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35542415-84DC-514A-9807-1482C9ABFACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="740" windowWidth="24040" windowHeight="17260" activeTab="1" xr2:uid="{DBF0F2D7-224F-4F43-AC71-F2C48BF6EDF2}"/>
+    <workbookView xWindow="640" yWindow="740" windowWidth="12740" windowHeight="17260" xr2:uid="{DBF0F2D7-224F-4F43-AC71-F2C48BF6EDF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Main</t>
   </si>
@@ -245,7 +245,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -266,6 +266,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -603,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F32251-463A-6244-AA60-5FF02613DB68}">
-  <dimension ref="K2:M15"/>
+  <dimension ref="J1:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -614,6 +615,11 @@
     <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="11:13">
+      <c r="M1" s="20">
+        <v>45687</v>
+      </c>
+    </row>
     <row r="2" spans="11:13">
       <c r="K2" s="2" t="s">
         <v>1</v>
@@ -630,7 +636,7 @@
         <v>3210</v>
       </c>
       <c r="M3" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="11:13">
@@ -647,11 +653,11 @@
         <v>5</v>
       </c>
       <c r="L5" s="4">
-        <f>18111+15537+14530</f>
-        <v>48178</v>
+        <f>36563+12017</f>
+        <v>48580</v>
       </c>
       <c r="M5" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="11:13">
@@ -659,11 +665,11 @@
         <v>6</v>
       </c>
       <c r="L6" s="4">
-        <f>2291+5405</f>
-        <v>7696</v>
+        <f>2456+5757</f>
+        <v>8213</v>
       </c>
       <c r="M6" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="11:13">
@@ -672,7 +678,7 @@
       </c>
       <c r="L7" s="4">
         <f>L4-L5+L6</f>
-        <v>1278828</v>
+        <v>1278943</v>
       </c>
     </row>
     <row r="8" spans="11:13">
@@ -705,7 +711,7 @@
       </c>
       <c r="L12" s="4">
         <f>NPV(L11,Model!Q21:EN21)+L5-L6</f>
-        <v>509273.33347975562</v>
+        <v>484681.92958994955</v>
       </c>
     </row>
     <row r="13" spans="11:13">
@@ -714,16 +720,36 @@
       </c>
       <c r="L13" s="7">
         <f>L12/L3</f>
-        <v>158.6521288098927</v>
+        <v>150.99125532397181</v>
       </c>
     </row>
     <row r="15" spans="11:13">
       <c r="L15" s="10">
         <f>L13/L2-1</f>
-        <v>-0.61398508805378904</v>
+        <v>-0.63262468291004426</v>
+      </c>
+    </row>
+    <row r="20" spans="10:12">
+      <c r="J20" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="8">
+        <v>158.6521288098927</v>
+      </c>
+    </row>
+    <row r="21" spans="10:12">
+      <c r="J21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="20">
+        <v>45687</v>
+      </c>
+      <c r="L21" s="7">
+        <v>150.99125532397181</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -732,11 +758,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3162E4A2-9F6A-FC45-8126-BDDA495ABCCF}">
   <dimension ref="A1:EN30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
+      <selection pane="bottomRight" activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -847,8 +873,7 @@
         <v>20016</v>
       </c>
       <c r="J5" s="9">
-        <f>F5*1.15</f>
-        <v>24797.449999999997</v>
+        <v>19798</v>
       </c>
       <c r="L5" s="9">
         <v>27236</v>
@@ -864,11 +889,11 @@
       </c>
       <c r="P5" s="9">
         <f>SUM(G5:J5)</f>
-        <v>82069.45</v>
+        <v>77070</v>
       </c>
       <c r="Q5" s="9">
-        <f>P5*1.15</f>
-        <v>94379.867499999993</v>
+        <f>P5*1.13</f>
+        <v>87089.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -898,8 +923,7 @@
         <v>2376</v>
       </c>
       <c r="J6" s="9">
-        <f t="shared" ref="J6:J13" si="0">F6*1.15</f>
-        <v>1653.6999999999998</v>
+        <v>3061</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9">
@@ -916,11 +940,11 @@
       </c>
       <c r="P6" s="9">
         <f>SUM(G6:J6)</f>
-        <v>8678.7000000000007</v>
+        <v>10086</v>
       </c>
       <c r="Q6" s="9">
-        <f>P6*1.15</f>
-        <v>9980.5049999999992</v>
+        <f>P6*1.13</f>
+        <v>11397.179999999998</v>
       </c>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
@@ -957,8 +981,7 @@
         <v>2790</v>
       </c>
       <c r="J7" s="9">
-        <f t="shared" si="0"/>
-        <v>2490.8999999999996</v>
+        <v>2848</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9">
@@ -975,11 +998,11 @@
       </c>
       <c r="P7" s="9">
         <f>SUM(G7:J7)</f>
-        <v>10176.9</v>
+        <v>10534</v>
       </c>
       <c r="Q7" s="9">
-        <f>P7*1.15</f>
-        <v>11703.434999999999</v>
+        <f>P7*1.13</f>
+        <v>11903.419999999998</v>
       </c>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
@@ -998,85 +1021,85 @@
         <v>23329</v>
       </c>
       <c r="D8" s="15">
-        <f t="shared" ref="D8:J8" si="1">SUM(D5:D7)</f>
+        <f t="shared" ref="D8:J8" si="0">SUM(D5:D7)</f>
         <v>24927</v>
       </c>
       <c r="E8" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23350</v>
       </c>
       <c r="F8" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25167</v>
       </c>
       <c r="G8" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21301</v>
       </c>
       <c r="H8" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25500</v>
       </c>
       <c r="I8" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25182</v>
       </c>
       <c r="J8" s="15">
-        <f t="shared" si="1"/>
-        <v>28942.049999999996</v>
+        <f t="shared" si="0"/>
+        <v>25707</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15">
-        <f t="shared" ref="L8:M8" si="2">SUM(L5:L7)</f>
+        <f t="shared" ref="L8:M8" si="1">SUM(L5:L7)</f>
         <v>31536</v>
       </c>
       <c r="M8" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>53823</v>
       </c>
       <c r="N8" s="15">
-        <f t="shared" ref="N8" si="3">SUM(N5:N7)</f>
+        <f t="shared" ref="N8" si="2">SUM(N5:N7)</f>
         <v>81462</v>
       </c>
       <c r="O8" s="15">
-        <f t="shared" ref="O8" si="4">SUM(O5:O7)</f>
+        <f t="shared" ref="O8" si="3">SUM(O5:O7)</f>
         <v>96773</v>
       </c>
       <c r="P8" s="15">
-        <f t="shared" ref="P8" si="5">SUM(P5:P7)</f>
-        <v>100925.04999999999</v>
+        <f t="shared" ref="P8" si="4">SUM(P5:P7)</f>
+        <v>97690</v>
       </c>
       <c r="Q8" s="15">
-        <f t="shared" ref="Q8" si="6">SUM(Q5:Q7)</f>
-        <v>116063.8075</v>
+        <f t="shared" ref="Q8" si="5">SUM(Q5:Q7)</f>
+        <v>110389.69999999998</v>
       </c>
       <c r="R8" s="15">
         <f>Q8*(1+R27)</f>
-        <v>133473.37862499998</v>
+        <v>126948.15499999997</v>
       </c>
       <c r="S8" s="15">
-        <f t="shared" ref="S8:X8" si="7">R8*(1+S27)</f>
-        <v>160168.05434999996</v>
+        <f t="shared" ref="S8:X8" si="6">R8*(1+S27)</f>
+        <v>152337.78599999996</v>
       </c>
       <c r="T8" s="15">
-        <f t="shared" si="7"/>
-        <v>184193.26250249994</v>
+        <f t="shared" si="6"/>
+        <v>175188.45389999993</v>
       </c>
       <c r="U8" s="15">
-        <f t="shared" si="7"/>
-        <v>211822.25187787492</v>
+        <f t="shared" si="6"/>
+        <v>201466.72198499992</v>
       </c>
       <c r="V8" s="15">
-        <f t="shared" si="7"/>
-        <v>233004.47706566245</v>
+        <f t="shared" si="6"/>
+        <v>221613.39418349994</v>
       </c>
       <c r="W8" s="15">
-        <f t="shared" si="7"/>
-        <v>256304.92477222873</v>
+        <f t="shared" si="6"/>
+        <v>243774.73360184996</v>
       </c>
       <c r="X8" s="15">
-        <f t="shared" si="7"/>
-        <v>269120.17101084016</v>
+        <f t="shared" si="6"/>
+        <v>255963.47028194249</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1106,8 +1129,7 @@
         <v>20185</v>
       </c>
       <c r="J9" s="9">
-        <f>F9*1.1</f>
-        <v>22801.9</v>
+        <v>21528</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9">
@@ -1124,11 +1146,11 @@
       </c>
       <c r="P9" s="9">
         <f>SUM(G9:J9)</f>
-        <v>81513.899999999994</v>
+        <v>80240</v>
       </c>
       <c r="Q9" s="9">
-        <f>P9*1.15</f>
-        <v>93740.984999999986</v>
+        <f>P9*1.13</f>
+        <v>90671.2</v>
       </c>
     </row>
     <row r="10" spans="1:24" s="16" customFormat="1">
@@ -1140,57 +1162,57 @@
         <v>4511</v>
       </c>
       <c r="D10" s="17">
-        <f t="shared" ref="D10:J10" si="8">D8-D9</f>
+        <f t="shared" ref="D10:J10" si="7">D8-D9</f>
         <v>4533</v>
       </c>
       <c r="E10" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4178</v>
       </c>
       <c r="F10" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4438</v>
       </c>
       <c r="G10" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3696</v>
       </c>
       <c r="H10" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4578</v>
       </c>
       <c r="I10" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4997</v>
       </c>
       <c r="J10" s="17">
-        <f t="shared" si="8"/>
-        <v>6140.1499999999942</v>
+        <f t="shared" si="7"/>
+        <v>4179</v>
       </c>
       <c r="K10" s="17"/>
       <c r="L10" s="17">
-        <f t="shared" ref="L10:M10" si="9">L8-L9</f>
+        <f t="shared" ref="L10:M10" si="8">L8-L9</f>
         <v>6630</v>
       </c>
       <c r="M10" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>13606</v>
       </c>
       <c r="N10" s="17">
-        <f t="shared" ref="N10" si="10">N8-N9</f>
+        <f t="shared" ref="N10" si="9">N8-N9</f>
         <v>20853</v>
       </c>
       <c r="O10" s="17">
-        <f t="shared" ref="O10" si="11">O8-O9</f>
+        <f t="shared" ref="O10" si="10">O8-O9</f>
         <v>17660</v>
       </c>
       <c r="P10" s="17">
-        <f t="shared" ref="P10" si="12">P8-P9</f>
-        <v>19411.149999999994</v>
+        <f t="shared" ref="P10" si="11">P8-P9</f>
+        <v>17450</v>
       </c>
       <c r="Q10" s="17">
-        <f t="shared" ref="Q10" si="13">Q8-Q9</f>
-        <v>22322.822500000009</v>
+        <f t="shared" ref="Q10" si="12">Q8-Q9</f>
+        <v>19718.499999999985</v>
       </c>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
@@ -1223,8 +1245,7 @@
         <v>1039</v>
       </c>
       <c r="J11" s="9">
-        <f>F11</f>
-        <v>1094</v>
+        <v>1276</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9">
@@ -1241,11 +1262,11 @@
       </c>
       <c r="P11" s="9">
         <f>SUM(G11:J11)</f>
-        <v>4358</v>
+        <v>4540</v>
       </c>
       <c r="Q11" s="9">
         <f>P11</f>
-        <v>4358</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1275,8 +1296,7 @@
         <v>1186</v>
       </c>
       <c r="J12" s="9">
-        <f>F12</f>
-        <v>1280</v>
+        <v>1313</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9">
@@ -1293,11 +1313,11 @@
       </c>
       <c r="P12" s="9">
         <f>SUM(G12:J12)</f>
-        <v>5117</v>
+        <v>5150</v>
       </c>
       <c r="Q12" s="9">
         <f>P12</f>
-        <v>5117</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1319,8 +1339,7 @@
         <v>55</v>
       </c>
       <c r="J13" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -1335,7 +1354,7 @@
       </c>
       <c r="P13" s="9">
         <f>SUM(G13:J13)</f>
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="Q13" s="9"/>
     </row>
@@ -1348,57 +1367,57 @@
         <v>1847</v>
       </c>
       <c r="D14" s="17">
-        <f t="shared" ref="D14:J14" si="14">SUM(D11:D13)</f>
+        <f t="shared" ref="D14:J14" si="13">SUM(D11:D13)</f>
         <v>2134</v>
       </c>
       <c r="E14" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2414</v>
       </c>
       <c r="F14" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2374</v>
       </c>
       <c r="G14" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2525</v>
       </c>
       <c r="H14" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2973</v>
       </c>
       <c r="I14" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2280</v>
       </c>
       <c r="J14" s="17">
-        <f t="shared" si="14"/>
-        <v>2374</v>
+        <f t="shared" si="13"/>
+        <v>2596</v>
       </c>
       <c r="K14" s="17"/>
       <c r="L14" s="17">
-        <f t="shared" ref="L14:M14" si="15">SUM(L11:L13)</f>
+        <f t="shared" ref="L14:M14" si="14">SUM(L11:L13)</f>
         <v>4636</v>
       </c>
       <c r="M14" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>7083</v>
       </c>
       <c r="N14" s="17">
-        <f t="shared" ref="N14" si="16">SUM(N11:N13)</f>
+        <f t="shared" ref="N14" si="15">SUM(N11:N13)</f>
         <v>7197</v>
       </c>
       <c r="O14" s="17">
-        <f t="shared" ref="O14" si="17">SUM(O11:O13)</f>
+        <f t="shared" ref="O14" si="16">SUM(O11:O13)</f>
         <v>8769</v>
       </c>
       <c r="P14" s="17">
-        <f t="shared" ref="P14" si="18">SUM(P11:P13)</f>
-        <v>10152</v>
+        <f t="shared" ref="P14" si="17">SUM(P11:P13)</f>
+        <v>10374</v>
       </c>
       <c r="Q14" s="17">
-        <f t="shared" ref="Q14" si="19">SUM(Q11:Q13)</f>
-        <v>9475</v>
+        <f t="shared" ref="Q14" si="18">SUM(Q11:Q13)</f>
+        <v>9690</v>
       </c>
       <c r="R14" s="17"/>
     </row>
@@ -1411,57 +1430,57 @@
         <v>2664</v>
       </c>
       <c r="D15" s="17">
-        <f t="shared" ref="D15:J15" si="20">D10-D14</f>
+        <f t="shared" ref="D15:J15" si="19">D10-D14</f>
         <v>2399</v>
       </c>
       <c r="E15" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1764</v>
       </c>
       <c r="F15" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2064</v>
       </c>
       <c r="G15" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1171</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1605</v>
       </c>
       <c r="I15" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2717</v>
       </c>
       <c r="J15" s="17">
-        <f t="shared" si="20"/>
-        <v>3766.1499999999942</v>
+        <f t="shared" si="19"/>
+        <v>1583</v>
       </c>
       <c r="K15" s="17"/>
       <c r="L15" s="17">
-        <f t="shared" ref="L15:M15" si="21">L10-L14</f>
+        <f t="shared" ref="L15:M15" si="20">L10-L14</f>
         <v>1994</v>
       </c>
       <c r="M15" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>6523</v>
       </c>
       <c r="N15" s="17">
-        <f t="shared" ref="N15" si="22">N10-N14</f>
+        <f t="shared" ref="N15" si="21">N10-N14</f>
         <v>13656</v>
       </c>
       <c r="O15" s="17">
-        <f t="shared" ref="O15" si="23">O10-O14</f>
+        <f t="shared" ref="O15" si="22">O10-O14</f>
         <v>8891</v>
       </c>
       <c r="P15" s="17">
-        <f t="shared" ref="P15" si="24">P10-P14</f>
-        <v>9259.1499999999942</v>
+        <f t="shared" ref="P15" si="23">P10-P14</f>
+        <v>7076</v>
       </c>
       <c r="Q15" s="17">
-        <f t="shared" ref="Q15" si="25">Q10-Q14</f>
-        <v>12847.822500000009</v>
+        <f t="shared" ref="Q15" si="24">Q10-Q14</f>
+        <v>10028.499999999985</v>
       </c>
       <c r="R15" s="17"/>
     </row>
@@ -1492,8 +1511,7 @@
         <v>429</v>
       </c>
       <c r="J16" s="19">
-        <f>I16</f>
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="K16" s="19"/>
       <c r="L16" s="19">
@@ -1510,11 +1528,11 @@
       </c>
       <c r="P16" s="9">
         <f>SUM(G16:J16)</f>
-        <v>1556</v>
+        <v>1569</v>
       </c>
       <c r="Q16" s="19">
         <f>P16</f>
-        <v>1556</v>
+        <v>1569</v>
       </c>
       <c r="R16" s="19"/>
     </row>
@@ -1545,8 +1563,7 @@
         <v>-92</v>
       </c>
       <c r="J17" s="19">
-        <f>I17</f>
-        <v>-92</v>
+        <v>-96</v>
       </c>
       <c r="K17" s="19"/>
       <c r="L17" s="19">
@@ -1563,11 +1580,11 @@
       </c>
       <c r="P17" s="9">
         <f>SUM(G17:J17)</f>
-        <v>-346</v>
+        <v>-350</v>
       </c>
       <c r="Q17" s="19">
         <f>P17</f>
-        <v>-346</v>
+        <v>-350</v>
       </c>
       <c r="R17" s="19"/>
     </row>
@@ -1598,7 +1615,7 @@
         <v>-270</v>
       </c>
       <c r="J18" s="9">
-        <v>0</v>
+        <v>837</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9">
@@ -1615,7 +1632,7 @@
       </c>
       <c r="P18" s="9">
         <f>SUM(G18:J18)</f>
-        <v>-142</v>
+        <v>695</v>
       </c>
       <c r="Q18" s="9"/>
     </row>
@@ -1628,15 +1645,15 @@
         <v>2800</v>
       </c>
       <c r="D19" s="17">
-        <f t="shared" ref="D19:F19" si="26">SUM(D15:D18)</f>
+        <f t="shared" ref="D19:F19" si="25">SUM(D15:D18)</f>
         <v>2937</v>
       </c>
       <c r="E19" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>2045</v>
       </c>
       <c r="F19" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>2191</v>
       </c>
       <c r="G19" s="17">
@@ -1644,41 +1661,41 @@
         <v>1553</v>
       </c>
       <c r="H19" s="17">
-        <f t="shared" ref="H19" si="27">SUM(H15:H18)</f>
+        <f t="shared" ref="H19" si="26">SUM(H15:H18)</f>
         <v>1887</v>
       </c>
       <c r="I19" s="17">
-        <f t="shared" ref="I19" si="28">SUM(I15:I18)</f>
+        <f t="shared" ref="I19" si="27">SUM(I15:I18)</f>
         <v>2784</v>
       </c>
       <c r="J19" s="17">
-        <f t="shared" ref="J19" si="29">SUM(J15:J18)</f>
-        <v>4103.1499999999942</v>
+        <f t="shared" ref="J19" si="28">SUM(J15:J18)</f>
+        <v>2766</v>
       </c>
       <c r="K19" s="17"/>
       <c r="L19" s="17">
-        <f t="shared" ref="L19:M19" si="30">SUM(L15:L18)</f>
+        <f t="shared" ref="L19:M19" si="29">SUM(L15:L18)</f>
         <v>1154</v>
       </c>
       <c r="M19" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>6343</v>
       </c>
       <c r="N19" s="17">
-        <f t="shared" ref="N19" si="31">SUM(N15:N18)</f>
+        <f t="shared" ref="N19" si="30">SUM(N15:N18)</f>
         <v>13719</v>
       </c>
       <c r="O19" s="17">
-        <f t="shared" ref="O19" si="32">SUM(O15:O18)</f>
+        <f t="shared" ref="O19" si="31">SUM(O15:O18)</f>
         <v>9973</v>
       </c>
       <c r="P19" s="17">
-        <f t="shared" ref="P19" si="33">SUM(P15:P18)</f>
-        <v>10327.149999999994</v>
+        <f t="shared" ref="P19" si="32">SUM(P15:P18)</f>
+        <v>8990</v>
       </c>
       <c r="Q19" s="17">
-        <f t="shared" ref="Q19" si="34">SUM(Q15:Q18)</f>
-        <v>14057.822500000009</v>
+        <f t="shared" ref="Q19" si="33">SUM(Q15:Q18)</f>
+        <v>11247.499999999985</v>
       </c>
     </row>
     <row r="20" spans="2:144">
@@ -1708,8 +1725,7 @@
         <v>601</v>
       </c>
       <c r="J20" s="9">
-        <f>J19*I30</f>
-        <v>885.77340158045854</v>
+        <v>434</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9">
@@ -1726,11 +1742,11 @@
       </c>
       <c r="P20" s="9">
         <f>SUM(G20:J20)</f>
-        <v>2288.7734015804585</v>
+        <v>1837</v>
       </c>
       <c r="Q20" s="9">
         <f>Q19*0.2</f>
-        <v>2811.5645000000022</v>
+        <v>2249.4999999999973</v>
       </c>
     </row>
     <row r="21" spans="2:144" s="14" customFormat="1">
@@ -1738,569 +1754,569 @@
         <v>21</v>
       </c>
       <c r="C21" s="15">
-        <f t="shared" ref="C21:J21" si="35">C19-C20</f>
+        <f t="shared" ref="C21:J21" si="34">C19-C20</f>
         <v>2539</v>
       </c>
       <c r="D21" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>2614</v>
       </c>
       <c r="E21" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>1878</v>
       </c>
       <c r="F21" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>7943</v>
       </c>
       <c r="G21" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>1144</v>
       </c>
       <c r="H21" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>1494</v>
       </c>
       <c r="I21" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>2183</v>
       </c>
       <c r="J21" s="15">
-        <f t="shared" si="35"/>
-        <v>3217.3765984195356</v>
+        <f t="shared" si="34"/>
+        <v>2332</v>
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15">
-        <f t="shared" ref="L21:Q21" si="36">L19-L20</f>
+        <f t="shared" ref="L21:Q21" si="35">L19-L20</f>
         <v>862</v>
       </c>
       <c r="M21" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>5644</v>
       </c>
       <c r="N21" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>12587</v>
       </c>
       <c r="O21" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>14974</v>
       </c>
       <c r="P21" s="15">
-        <f t="shared" si="36"/>
-        <v>8038.3765984195361</v>
+        <f t="shared" si="35"/>
+        <v>7153</v>
       </c>
       <c r="Q21" s="15">
-        <f t="shared" si="36"/>
-        <v>11246.258000000007</v>
+        <f t="shared" si="35"/>
+        <v>8997.9999999999891</v>
       </c>
       <c r="R21" s="15">
         <f>R8*R29</f>
-        <v>20021.006793749995</v>
+        <v>19042.223249999995</v>
       </c>
       <c r="S21" s="15">
-        <f t="shared" ref="S21:X21" si="37">S8*S29</f>
-        <v>24025.208152499992</v>
+        <f t="shared" ref="S21:X21" si="36">S8*S29</f>
+        <v>22850.667899999993</v>
       </c>
       <c r="T21" s="15">
-        <f t="shared" si="37"/>
-        <v>29470.922000399991</v>
+        <f t="shared" si="36"/>
+        <v>28030.152623999991</v>
       </c>
       <c r="U21" s="15">
-        <f t="shared" si="37"/>
-        <v>36009.782819238739</v>
+        <f t="shared" si="36"/>
+        <v>34249.342737449988</v>
       </c>
       <c r="V21" s="15">
-        <f t="shared" si="37"/>
-        <v>41940.805871819241</v>
+        <f t="shared" si="36"/>
+        <v>39890.41095302999</v>
       </c>
       <c r="W21" s="15">
-        <f t="shared" si="37"/>
-        <v>48697.93570672346</v>
+        <f t="shared" si="36"/>
+        <v>46317.199384351494</v>
       </c>
       <c r="X21" s="15">
-        <f t="shared" si="37"/>
-        <v>53824.034202168034</v>
+        <f t="shared" si="36"/>
+        <v>51192.6940563885</v>
       </c>
       <c r="Y21" s="15">
         <f>X21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="Z21" s="15">
         <f>Y21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="AA21" s="15">
         <f>Z21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="AB21" s="15">
         <f>AA21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="AC21" s="15">
         <f>AB21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="AD21" s="15">
         <f>AC21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="AE21" s="15">
         <f>AD21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="AF21" s="15">
         <f>AE21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="AG21" s="15">
         <f>AF21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="AH21" s="15">
         <f>AG21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="AI21" s="15">
         <f>AH21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="AJ21" s="15">
         <f>AI21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="AK21" s="15">
         <f>AJ21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="AL21" s="15">
         <f>AK21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="AM21" s="15">
         <f>AL21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="AN21" s="15">
         <f>AM21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="AO21" s="15">
         <f>AN21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="AP21" s="15">
         <f>AO21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="AQ21" s="15">
         <f>AP21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="AR21" s="15">
         <f>AQ21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="AS21" s="15">
         <f>AR21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="AT21" s="15">
         <f>AS21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="AU21" s="15">
         <f>AT21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="AV21" s="15">
         <f>AU21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="AW21" s="15">
         <f>AV21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="AX21" s="15">
         <f>AW21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="AY21" s="15">
         <f>AX21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="AZ21" s="15">
         <f>AY21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="BA21" s="15">
         <f>AZ21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="BB21" s="15">
         <f>BA21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="BC21" s="15">
         <f>BB21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="BD21" s="15">
         <f>BC21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="BE21" s="15">
         <f>BD21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="BF21" s="15">
         <f>BE21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="BG21" s="15">
         <f>BF21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="BH21" s="15">
         <f>BG21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="BI21" s="15">
         <f>BH21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="BJ21" s="15">
         <f>BI21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="BK21" s="15">
         <f>BJ21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="BL21" s="15">
         <f>BK21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="BM21" s="15">
         <f>BL21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="BN21" s="15">
         <f>BM21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="BO21" s="15">
         <f>BN21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="BP21" s="15">
         <f>BO21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="BQ21" s="15">
         <f>BP21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="BR21" s="15">
         <f>BQ21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="BS21" s="15">
         <f>BR21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="BT21" s="15">
         <f>BS21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="BU21" s="15">
         <f>BT21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="BV21" s="15">
         <f>BU21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="BW21" s="15">
         <f>BV21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="BX21" s="15">
         <f>BW21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="BY21" s="15">
         <f>BX21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="BZ21" s="15">
         <f>BY21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="CA21" s="15">
         <f>BZ21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="CB21" s="15">
         <f>CA21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="CC21" s="15">
         <f>CB21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="CD21" s="15">
         <f>CC21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="CE21" s="15">
         <f>CD21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="CF21" s="15">
         <f>CE21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="CG21" s="15">
         <f>CF21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="CH21" s="15">
         <f>CG21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="CI21" s="15">
         <f>CH21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="CJ21" s="15">
         <f>CI21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="CK21" s="15">
         <f>CJ21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="CL21" s="15">
         <f>CK21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="CM21" s="15">
         <f>CL21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="CN21" s="15">
         <f>CM21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="CO21" s="15">
         <f>CN21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="CP21" s="15">
         <f>CO21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="CQ21" s="15">
         <f>CP21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="CR21" s="15">
         <f>CQ21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="CS21" s="15">
         <f>CR21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="CT21" s="15">
         <f>CS21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="CU21" s="15">
         <f>CT21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="CV21" s="15">
         <f>CU21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="CW21" s="15">
         <f>CV21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="CX21" s="15">
         <f>CW21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="CY21" s="15">
         <f>CX21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="CZ21" s="15">
         <f>CY21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="DA21" s="15">
         <f>CZ21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="DB21" s="15">
         <f>DA21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="DC21" s="15">
         <f>DB21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="DD21" s="15">
         <f>DC21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="DE21" s="15">
         <f>DD21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="DF21" s="15">
         <f>DE21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="DG21" s="15">
         <f>DF21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="DH21" s="15">
         <f>DG21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="DI21" s="15">
         <f>DH21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="DJ21" s="15">
         <f>DI21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="DK21" s="15">
         <f>DJ21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="DL21" s="15">
         <f>DK21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="DM21" s="15">
         <f>DL21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="DN21" s="15">
         <f>DM21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="DO21" s="15">
         <f>DN21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="DP21" s="15">
         <f>DO21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="DQ21" s="15">
         <f>DP21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="DR21" s="15">
         <f>DQ21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="DS21" s="15">
         <f>DR21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="DT21" s="15">
         <f>DS21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="DU21" s="15">
         <f>DT21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="DV21" s="15">
         <f>DU21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="DW21" s="15">
         <f>DV21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="DX21" s="15">
         <f>DW21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="DY21" s="15">
         <f>DX21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="DZ21" s="15">
         <f>DY21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="EA21" s="15">
         <f>DZ21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="EB21" s="15">
         <f>EA21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="EC21" s="15">
         <f>EB21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="ED21" s="15">
         <f>EC21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="EE21" s="15">
         <f>ED21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="EF21" s="15">
         <f>EE21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="EG21" s="15">
         <f>EF21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="EH21" s="15">
         <f>EG21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="EI21" s="15">
         <f>EH21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="EJ21" s="15">
         <f>EI21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="EK21" s="15">
         <f>EJ21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="EL21" s="15">
         <f>EK21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="EM21" s="15">
         <f>EL21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
       <c r="EN21" s="15">
         <f>EM21*(1+Main!$L$10)</f>
-        <v>53824.034202168034</v>
+        <v>51192.6940563885</v>
       </c>
     </row>
     <row r="22" spans="2:144" s="18" customFormat="1">
@@ -2330,7 +2346,7 @@
         <v>16</v>
       </c>
       <c r="J22" s="19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K22" s="19"/>
       <c r="L22" s="19">
@@ -2347,7 +2363,7 @@
       </c>
       <c r="P22" s="9">
         <f>SUM(G22:J22)</f>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
@@ -2487,57 +2503,57 @@
         <v>2513</v>
       </c>
       <c r="D23" s="15">
-        <f t="shared" ref="D23" si="38">D21-D22</f>
+        <f t="shared" ref="D23" si="37">D21-D22</f>
         <v>2703</v>
       </c>
       <c r="E23" s="15">
-        <f t="shared" ref="E23" si="39">E21-E22</f>
+        <f t="shared" ref="E23" si="38">E21-E22</f>
         <v>1853</v>
       </c>
       <c r="F23" s="15">
-        <f t="shared" ref="F23" si="40">F21-F22</f>
+        <f t="shared" ref="F23" si="39">F21-F22</f>
         <v>7928</v>
       </c>
       <c r="G23" s="15">
-        <f t="shared" ref="G23" si="41">G21-G22</f>
+        <f t="shared" ref="G23" si="40">G21-G22</f>
         <v>1129</v>
       </c>
       <c r="H23" s="15">
-        <f t="shared" ref="H23" si="42">H21-H22</f>
+        <f t="shared" ref="H23" si="41">H21-H22</f>
         <v>1478</v>
       </c>
       <c r="I23" s="15">
-        <f t="shared" ref="I23" si="43">I21-I22</f>
+        <f t="shared" ref="I23" si="42">I21-I22</f>
         <v>2167</v>
       </c>
       <c r="J23" s="15">
-        <f t="shared" ref="J23" si="44">J21-J22</f>
-        <v>3201.3765984195356</v>
+        <f t="shared" ref="J23" si="43">J21-J22</f>
+        <v>2317</v>
       </c>
       <c r="K23" s="15"/>
       <c r="L23" s="15">
-        <f t="shared" ref="L23:M23" si="45">L21-L22</f>
+        <f t="shared" ref="L23:M23" si="44">L21-L22</f>
         <v>721</v>
       </c>
       <c r="M23" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>5519</v>
       </c>
       <c r="N23" s="15">
-        <f t="shared" ref="N23" si="46">N21-N22</f>
+        <f t="shared" ref="N23" si="45">N21-N22</f>
         <v>12556</v>
       </c>
       <c r="O23" s="15">
-        <f t="shared" ref="O23" si="47">O21-O22</f>
+        <f t="shared" ref="O23" si="46">O21-O22</f>
         <v>14997</v>
       </c>
       <c r="P23" s="15">
-        <f t="shared" ref="P23" si="48">P21-P22</f>
-        <v>7975.3765984195361</v>
+        <f t="shared" ref="P23" si="47">P21-P22</f>
+        <v>7091</v>
       </c>
       <c r="Q23" s="15">
-        <f t="shared" ref="Q23" si="49">Q21-Q22</f>
-        <v>11246.258000000007</v>
+        <f t="shared" ref="Q23" si="48">Q21-Q22</f>
+        <v>8997.9999999999891</v>
       </c>
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
@@ -2676,57 +2692,57 @@
         <v>0.7246251441753172</v>
       </c>
       <c r="D24" s="8">
-        <f t="shared" ref="D24:J24" si="50">D23/D25</f>
+        <f t="shared" ref="D24:J24" si="49">D23/D25</f>
         <v>0.77717078780908566</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0.53048955052963065</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>3.1788291900561347</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0.32405281285878301</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0.4245906348750359</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0.61967400629110669</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" si="50"/>
-        <v>0.91546371130098247</v>
+        <f t="shared" si="49"/>
+        <v>0.65880011373329539</v>
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8">
-        <f t="shared" ref="L24:M24" si="51">L23/L25</f>
+        <f t="shared" ref="L24:M24" si="50">L23/L25</f>
         <v>0.22191443521083409</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1.6299468399291199</v>
       </c>
       <c r="N24" s="8">
-        <f t="shared" ref="N24" si="52">N23/N25</f>
+        <f t="shared" ref="N24" si="51">N23/N25</f>
         <v>3.6132374100719424</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" ref="O24" si="53">O23/O25</f>
+        <f t="shared" ref="O24" si="52">O23/O25</f>
         <v>4.3032998565279774</v>
       </c>
       <c r="P24" s="8">
-        <f t="shared" ref="P24" si="54">P23/P25</f>
-        <v>2.2806338571402733</v>
+        <f t="shared" ref="P24" si="53">P23/P25</f>
+        <v>2.0162069945976686</v>
       </c>
       <c r="Q24" s="8">
-        <f t="shared" ref="Q24" si="55">Q23/Q25</f>
-        <v>3.2159731198169879</v>
+        <f t="shared" ref="Q24" si="54">Q23/Q25</f>
+        <v>2.5730626251072315</v>
       </c>
     </row>
     <row r="25" spans="2:144">
@@ -2755,8 +2771,7 @@
         <v>3497</v>
       </c>
       <c r="J25" s="9">
-        <f>I25</f>
-        <v>3497</v>
+        <v>3517</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9">
@@ -2772,7 +2787,8 @@
         <v>3485</v>
       </c>
       <c r="P25" s="9">
-        <v>3497</v>
+        <f>J25</f>
+        <v>3517</v>
       </c>
       <c r="Q25" s="9">
         <v>3497</v>
@@ -2787,16 +2803,16 @@
         <v>-8.6930429936988296E-2</v>
       </c>
       <c r="H27" s="11">
-        <f t="shared" ref="H27:J27" si="56">H8/D8-1</f>
+        <f t="shared" ref="H27:J27" si="55">H8/D8-1</f>
         <v>2.2987122397400306E-2</v>
       </c>
       <c r="I27" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>7.8458244111349051E-2</v>
       </c>
       <c r="J27" s="11">
-        <f t="shared" si="56"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="55"/>
+        <v>2.1456669448086885E-2</v>
       </c>
       <c r="M27" s="11">
         <f>M8/L8-1</f>
@@ -2807,16 +2823,16 @@
         <v>0.51351652639206291</v>
       </c>
       <c r="O27" s="11">
-        <f t="shared" ref="O27:P27" si="57">O8/N8-1</f>
+        <f t="shared" ref="O27:P27" si="56">O8/N8-1</f>
         <v>0.18795266504627928</v>
       </c>
       <c r="P27" s="11">
-        <f t="shared" si="57"/>
-        <v>4.2905045828898425E-2</v>
+        <f t="shared" si="56"/>
+        <v>9.4757835346634955E-3</v>
       </c>
       <c r="Q27" s="11">
-        <f t="shared" ref="Q27" si="58">Q8/P8-1</f>
-        <v>0.15000000000000013</v>
+        <f t="shared" ref="Q27" si="57">Q8/P8-1</f>
+        <v>0.12999999999999989</v>
       </c>
       <c r="R27" s="12">
         <v>0.15</v>
@@ -2849,56 +2865,56 @@
         <v>0.19336448197522396</v>
       </c>
       <c r="D28" s="11">
-        <f t="shared" ref="D28:J28" si="59">D10/D8</f>
+        <f t="shared" ref="D28:J28" si="58">D10/D8</f>
         <v>0.18185100493440848</v>
       </c>
       <c r="E28" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0.17892933618843684</v>
       </c>
       <c r="F28" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0.17634203520483172</v>
       </c>
       <c r="G28" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0.1735129806112389</v>
       </c>
       <c r="H28" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0.17952941176470588</v>
       </c>
       <c r="I28" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0.19843539035819235</v>
       </c>
       <c r="J28" s="11">
-        <f t="shared" si="59"/>
-        <v>0.21215325106549104</v>
+        <f t="shared" si="58"/>
+        <v>0.16256272610572994</v>
       </c>
       <c r="L28" s="11">
         <f>L10/L8</f>
         <v>0.2102359208523592</v>
       </c>
       <c r="M28" s="11">
-        <f t="shared" ref="M28:Q28" si="60">M10/M8</f>
+        <f t="shared" ref="M28:P28" si="59">M10/M8</f>
         <v>0.25279155751258753</v>
       </c>
       <c r="N28" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>0.25598438535759005</v>
       </c>
       <c r="O28" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>0.18248891736331416</v>
       </c>
       <c r="P28" s="11">
-        <f t="shared" si="60"/>
-        <v>0.1923323297833392</v>
+        <f t="shared" si="59"/>
+        <v>0.17862626676220697</v>
       </c>
       <c r="Q28" s="11">
-        <f t="shared" ref="Q28" si="61">Q10/Q8</f>
-        <v>0.19233232978333931</v>
+        <f t="shared" ref="Q28" si="60">Q10/Q8</f>
+        <v>0.17862626676220689</v>
       </c>
     </row>
     <row r="29" spans="2:144">
@@ -2910,56 +2926,56 @@
         <v>0.10772000514381243</v>
       </c>
       <c r="D29" s="11">
-        <f t="shared" ref="D29:J29" si="62">D23/D8</f>
+        <f t="shared" ref="D29:J29" si="61">D23/D8</f>
         <v>0.10843663497412444</v>
       </c>
       <c r="E29" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>7.9357601713062095E-2</v>
       </c>
       <c r="F29" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0.31501569515635552</v>
       </c>
       <c r="G29" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>5.3002206469179851E-2</v>
       </c>
       <c r="H29" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>5.7960784313725491E-2</v>
       </c>
       <c r="I29" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>8.6053530299420214E-2</v>
       </c>
       <c r="J29" s="11">
-        <f t="shared" si="62"/>
-        <v>0.1106133324494822</v>
+        <f t="shared" si="61"/>
+        <v>9.0131092698486792E-2</v>
       </c>
       <c r="L29" s="11">
         <f>L23/L8</f>
         <v>2.2862760020294266E-2</v>
       </c>
       <c r="M29" s="11">
-        <f t="shared" ref="M29:R29" si="63">M23/M8</f>
+        <f t="shared" ref="M29:P29" si="62">M23/M8</f>
         <v>0.10253980640246735</v>
       </c>
       <c r="N29" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>0.15413321548697553</v>
       </c>
       <c r="O29" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>0.15497091130790613</v>
       </c>
       <c r="P29" s="11">
-        <f t="shared" si="63"/>
-        <v>7.9022765888345239E-2</v>
+        <f t="shared" si="62"/>
+        <v>7.258675401781145E-2</v>
       </c>
       <c r="Q29" s="11">
-        <f t="shared" ref="Q29" si="64">Q23/Q8</f>
-        <v>9.6897200274943654E-2</v>
+        <f t="shared" ref="Q29" si="63">Q23/Q8</f>
+        <v>8.1511227949708984E-2</v>
       </c>
       <c r="R29" s="11">
         <v>0.15</v>
@@ -2993,52 +3009,52 @@
         <v>9.3214285714285708E-2</v>
       </c>
       <c r="D30" s="11">
-        <f t="shared" ref="D30:I30" si="65">D20/D19</f>
+        <f t="shared" ref="D30:I30" si="64">D20/D19</f>
         <v>0.10997616615594144</v>
       </c>
       <c r="E30" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>8.1662591687041569E-2</v>
       </c>
       <c r="F30" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>-2.6252852578731174</v>
       </c>
       <c r="G30" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.26336123631680619</v>
       </c>
       <c r="H30" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.20826709062003179</v>
       </c>
       <c r="I30" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.2158764367816092</v>
       </c>
       <c r="J30" s="11">
         <f>J20/J19</f>
-        <v>0.2158764367816092</v>
+        <v>0.15690527838033261</v>
       </c>
       <c r="M30" s="11">
         <f>M20/M19</f>
         <v>0.11020022071574964</v>
       </c>
       <c r="N30" s="11">
-        <f t="shared" ref="N30:P30" si="66">N20/N19</f>
+        <f t="shared" ref="N30:P30" si="65">N20/N19</f>
         <v>8.2513302718857054E-2</v>
       </c>
       <c r="O30" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>-0.50145392559911761</v>
       </c>
       <c r="P30" s="11">
-        <f t="shared" si="66"/>
-        <v>0.22162681878160576</v>
+        <f t="shared" si="65"/>
+        <v>0.20433815350389323</v>
       </c>
       <c r="Q30" s="11">
-        <f t="shared" ref="Q30" si="67">Q20/Q19</f>
-        <v>0.20000000000000004</v>
+        <f t="shared" ref="Q30" si="66">Q20/Q19</f>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
